--- a/职业兴趣调研.xlsx
+++ b/职业兴趣调研.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$5:$J$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>必要条件：第六题选择B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">任意条件：第三题选择A，或第六题选择D
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,11 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当不满足以上条件时：
-职能管培的任意通道您都符合，请参考您的职业兴趣和项目介绍进行选择哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>综合管理培训生 - 玛氏皇家事业部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,15 +234,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应管理培训生项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应制造方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应链方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>必要条件：第六题选择A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每道题任意命中，只要不落在其他选项，统一落在此选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,59 +259,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>任意命中A或B都可以，只有选C时出现提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这题答案随便选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选什么都可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合管理培训生 - 玛氏宠物护理事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六题选B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六题选C或者D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一题选A并且(第二题选A或者第三题选择D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六题选择B或者C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一题选A并且(第二题选择C或者第三题选择C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志愿一：综合管培通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六题选A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理培训生项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六题选C或者D并且第二题选择C或者第三题选D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>综合管理培训生- 全球共享服务中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任意命中A或B都可以，只有选C时出现提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这题答案随便选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选什么都可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合管理培训生 - 玛氏宠物护理事业部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六题选A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六题选B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六题选C或者D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六题选C或者D并且第二题选择C或者第三题选D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一题选A并且(第二题选A或者第三题选择D)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六题选择B或者C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一题选A并且(第二题选择C或者第三题选择C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第三题选A或者第六题选D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售管理培训生项目</t>
+    <t>必要条件：第六题选择A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要条件：第六题选择B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,15 +331,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>志愿一：综合管培通道</t>
+    <t>供应管理培训生项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应链方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当不满足以上条件时：
+职能管培的任意通道您都符合，请参考您的职业兴趣和项目介绍进行选择哦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,525 +923,525 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:J42"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
     <col min="3" max="5" width="17.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
-      <c r="C5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="C6" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="I8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="5" t="s">
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="5" t="s">
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="5" t="s">
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="G38" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="H38" s="9"/>
-      <c r="I38" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" ht="96" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" ht="66">
-      <c r="B41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="78.599999999999994" customHeight="1">
-      <c r="B42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="J32:J35"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C42 C28 C40 C41:D41 C19:D19 C13:D13 C9 C43:J68 F42:G42 C10:E12 C20:E24 C14:E18 F10:J24 F41:J41 C29:J29 C26:J27 C30 C31:J34 C35:D35 F35:J35 C37:D39 F37:F39 C36:G36 I36:I39 G9:J9">
+  <conditionalFormatting sqref="C38 C24 C36 C37:D37 C15:D15 C9:D9 C5 C39:J64 F38:G38 C6:E8 C16:E20 C10:E14 F6:J20 F37:J37 C25:J25 C22:J23 C26 C27:J30 C31:D31 F31:J31 C33:D35 F33:F35 C32:G32 I32:I35 G5:J5">
     <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:D19 C13:D13 C9 C10:E12 C20:E24 C14:E18 F10:J24 C29:J29 C26:J27 C30 C31:J34 C35:D35 F35:J35 C37:D39 F37:F39 C36:G36 I36:I39 G9:J9">
+  <conditionalFormatting sqref="C15:D15 C9:D9 C5 C6:E8 C16:E20 C10:E14 F6:J20 C25:J25 C22:J23 C26 C27:J30 C31:D31 F31:J31 C33:D35 F33:F35 C32:G32 I32:I35 G5:J5">
     <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"必要"</formula>
     </cfRule>
@@ -1452,12 +1452,12 @@
       <formula>"同时命中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C21">
     <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C21">
     <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"必要"</formula>
     </cfRule>
@@ -1468,12 +1468,12 @@
       <formula>"同时命中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"必要"</formula>
     </cfRule>
@@ -1484,12 +1484,12 @@
       <formula>"同时命中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"必要"</formula>
     </cfRule>
@@ -1500,12 +1500,12 @@
       <formula>"同时命中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H32">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H32">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"必要"</formula>
     </cfRule>
@@ -1516,12 +1516,12 @@
       <formula>"同时命中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"必要"</formula>
     </cfRule>
@@ -1538,6 +1538,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9158B7A0344D4498A8CE55600A03297" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd1e5af1451ecfaf049b6ec5308fb05f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84a53be4-a8d8-4d0c-b3da-7af8ec0e542c" xmlns:ns3="e165d53e-0757-49ee-a160-0788d2e6ed12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab4b874637293b0125efa8032a3fb844" ns2:_="" ns3:_="">
     <xsd:import namespace="84a53be4-a8d8-4d0c-b3da-7af8ec0e542c"/>
@@ -1754,22 +1769,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072E27FC-C992-44ED-95F0-021AF6537856}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E3710D-2BB6-468D-9A2B-06C1F351FCCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC9EA1D-47D1-454B-AACD-598770DA6B3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1786,21 +1803,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E3710D-2BB6-468D-9A2B-06C1F351FCCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072E27FC-C992-44ED-95F0-021AF6537856}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>